--- a/data/trans_bre/P5_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,17 +586,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,49%</t>
+          <t>-10,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,95%</t>
+          <t>-8,74%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,74</t>
+          <t>-4,7; 1,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,54</t>
+          <t>-4,84; 2,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 16,58</t>
+          <t>-31,78; 18,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 22,28</t>
+          <t>-33,2; 23,76</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,39%</t>
+          <t>-20,72%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 1,45</t>
+          <t>-8,15; 0,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,13; -0,25</t>
+          <t>-8,72; 1,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 9,5</t>
+          <t>-39,51; 5,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 0,37</t>
+          <t>-39,53; 8,9</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>-16,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>-12,67%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 5,6</t>
+          <t>-13,98; 5,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 10,85</t>
+          <t>-12,6; 8,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-47,44; 37,17</t>
+          <t>-47,25; 36,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 71,07</t>
+          <t>-47,3; 47,35</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,16%</t>
+          <t>-15,62%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 0,23</t>
+          <t>-5,23; 0,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -0,09</t>
+          <t>-5,64; 0,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 1,56</t>
+          <t>-30,42; 0,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 0,31</t>
+          <t>-30,32; 2,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,12</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-10,48%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-8,74%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.317711801846663</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.8209205538514273</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.1048272325552548</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.06498180542308983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 1,99</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 2,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-31,78; 18,51</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-33,2; 23,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.697758544661719</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.826647676658714</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.317754132516203</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3266639121027238</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.98690060958033</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.680683711752973</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1850580541238387</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.2511183285075473</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,98</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-18,45%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-20,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; 0,77</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 1,3</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-39,51; 5,42</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-39,53; 8,9</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.284517041344564</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.398209441294249</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1844676882147698</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.2279568121547119</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-16,44%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-12,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.146961404826612</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.204263905424753</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3950966560409229</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4143334721168191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,98; 5,88</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,6; 8,03</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-47,25; 36,68</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-47,3; 47,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.7714427841036831</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6470934519079495</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.0541639573936706</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.04260867871369314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,49</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-15,73%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-15,62%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.6232725435035</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.9375062151917</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.1643855389635548</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.08713256456233323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 0,06</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,64; 0,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-30,42; 0,37</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-30,32; 2,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.97601999831303</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.85733821946425</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.472505591433218</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4701071047707763</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.877634492007656</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.697813053303216</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.3667747906698833</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.6088303773310393</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.490675825343372</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.4966291891348</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1572831284406005</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1516350808340317</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.229229736771809</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.502168384557373</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3042443092757426</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2990745967612032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.06106342834329691</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5531700261426155</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.003656688395739754</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.04265188969202011</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
